--- a/biology/Botanique/Pleurostylia_serrulata/Pleurostylia_serrulata.xlsx
+++ b/biology/Botanique/Pleurostylia_serrulata/Pleurostylia_serrulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleurostylia serrulata Loes. est une espèce de plantes de la famille des Celastraceae et du genre Pleurostylia, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste de 6 à 8 m de hauteur, présent dans les forêts de moyenne altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste de 6 à 8 m de hauteur, présent dans les forêts de moyenne altitude.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, l'espèce a été observée dans la région du Littoral (Douala, Édéa) ; dans la région du Centre (Yaoundé, Bafia) ; dans la région de l'Est (au nord-nord-est de Moloundou) ; au Sud, dans le massif de Nyolé ; au Nord-Ouest à Banda[3].
-Elle a été classée vulnérable à cause de la déforestation, des feux de brousse, des cultures, de la faible occupation de l'espace[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, l'espèce a été observée dans la région du Littoral (Douala, Édéa) ; dans la région du Centre (Yaoundé, Bafia) ; dans la région de l'Est (au nord-nord-est de Moloundou) ; au Sud, dans le massif de Nyolé ; au Nord-Ouest à Banda.
+Elle a été classée vulnérable à cause de la déforestation, des feux de brousse, des cultures, de la faible occupation de l'espace.
 </t>
         </is>
       </c>
